--- a/biology/Botanique/Classification_APG_II/Classification_APG_II.xlsx
+++ b/biology/Botanique/Classification_APG_II/Classification_APG_II.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification APG II (2003), ou classification phylogénétique, est une classification botanique des angiospermes établie selon les travaux de l'Angiosperm Phylogeny Group.
 APG II est la deuxième classification publiée par ce groupe, après la classification APG, la troisième étant la classification phylogénétique APG III (2009).
@@ -526,17 +538,54 @@
           <t>Classification des plantes à fleurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>N.B. Ici, les noms scientifiques des familles présument une date de départ au 4 août 1789 (date de publication du Genera Plantarum de Jussieu). Ce choix ne se conforme pas au Code de Saint Louis (2000), mais vient se conformer au Code de Vienne (2006).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N.B. Ici, les noms scientifiques des familles présument une date de départ au 4 août 1789 (date de publication du Genera Plantarum de Jussieu). Ce choix ne se conforme pas au Code de Saint Louis (2000), mais vient se conformer au Code de Vienne (2006).
 N.B.2 Ici, deux noms sont retenus : (Potamogetonaceae et Cornaceae), en anticipation des propositions pour superconserver ces noms. N'est pas retenu Amaryllidaceae lato sensu (pour la famille qui est appelée ici Alliaceae), étant entendu que Meerow &amp; al. proposent de conserver Amaryllidaceae au-dessus de Alliaceae. Ici, Amaryllidaceae est utilisé seulement stricto sensu.
 * = nouvel emplacement pour cette famille (changé depuis la classification
 APG);
  = nouvel ordre (changé depuis la classification APG);
 § = nouvelle définition (voir texte de APG II).
 Les familles en "[...]" sont des alternatives acceptables et monophylétiques. Elles peuvent être utilisées, optionnellement, au lieu de la définition lato sensu préférée ici.
-groupes s'étant individualisés tôt (anglais : "root groups")
-famille Amborellaceae Pichon (1948)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification des plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>groupes s'étant individualisés tôt (anglais : "root groups")</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">famille Amborellaceae Pichon (1948)
 famille Chloranthaceae R.Br. ex. Sims (1820)
 famille Nymphaeaceae Salisb. (1805)
 [+ famille Cabombaceae Rich. ex. A.Rich. (1822)]
@@ -548,8 +597,43 @@
 ordre Ceratophyllales Bisch. (1839)
 famille Ceratophyllaceae Gray (1821)
 L'ordre Ceratophyllales est rattaché à la base des dicotylédones vraies, mais n'appartient pas à celles-ci.
-Magnoliidées (anglais "magnoliids")
-ordre Canellales Cronquist (1957)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification des plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Magnoliidées (anglais "magnoliids")</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ordre Canellales Cronquist (1957)
 famille Canellaceae Mart. (1832)
 famille Winteraceae R.Br. ex Lindl. (1830)
 ordre Laurales Perleb (1826)
@@ -572,9 +656,43 @@
 famille *Hydnoraceae C.Agardh (1821)
 famille Lactoridaceae Engl. (1888)
 famille Piperaceae Bercht. &amp; J.Presl (1820)
-famille Saururaceae Martinov (1820)
-Monocotylédones (anglais "monocots")
-famille $Petrosaviaceae Hutch. (1934)
+famille Saururaceae Martinov (1820)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification des plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monocotylédones (anglais "monocots")</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>famille $Petrosaviaceae Hutch. (1934)
 ordre Acorales Reveal (1996)
 famille Acoraceae Martinov (1820)
 ordre Alismatales Dumort. (1829)
@@ -638,9 +756,47 @@
 famille Pandanaceae R.Br. (1810)
 famille Stemonaceae Caruel (1878)
 famille *Triuridaceae Gardner (1843)
-famille Velloziaceae Hook. (1827)
-Commelinidées (anglais "commelinids")
-NB: en APG II l'anglais est "commelinids" mais c'était "commelinoids" en APG.
+famille Velloziaceae Hook. (1827)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification des plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Monocotylédones (anglais "monocots")</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Commelinidées (anglais "commelinids")</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NB: en APG II l'anglais est "commelinids" mais c'était "commelinoids" en APG.
 famille Dasypogonaceae Dumort. (1829)
 ordre Arecales Bromhead (1840)
 famille Arecaceae Schultz Sch. (1832)
@@ -677,9 +833,43 @@
 famille Marantaceae R.Br. (1814)
 famille Musaceae Juss. (1789)
 famille Strelitziaceae Hutch. (1934)
-famille Zingiberaceae Martinov (1820)
-Dicotylédones vraies ou Eudicotylédones (anglais "eudicots")
-famille $Buxaceae Dumort. (1822)
+famille Zingiberaceae Martinov (1820)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification des plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dicotylédones vraies ou Eudicotylédones (anglais "eudicots")</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>famille $Buxaceae Dumort. (1822)
 [+ famille Didymelaceae Leandri (1937)]
 famille Sabiaceae Blume (1851)
 famille Trochodendraceae Eichler (1865)
@@ -698,9 +888,47 @@
 famille Papaveraceae Juss. (1789)
 [+ famille Fumariaceae Bercht. &amp; J.Presl (1820)]
 [+ famille Pteridophyllaceae (Murb.)Nakai ex Reveal &amp; Hoogland (1991)]
-famille Ranunculaceae Juss. (1789)
-Noyau des Dicotylédones vraies ou Eudicotylédones supérieures (anglais "core eudicots")
-famille Aextoxicaceae Engl. &amp; Gilg (1920)
+famille Ranunculaceae Juss. (1789)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification des plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dicotylédones vraies ou Eudicotylédones (anglais "eudicots")</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Noyau des Dicotylédones vraies ou Eudicotylédones supérieures (anglais "core eudicots")</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>famille Aextoxicaceae Engl. &amp; Gilg (1920)
 famille Berberidopsidaceae Takht. (1985)
 famille Dilleniaceae Salisb. (1807)
 orde Gunnerales Takht. ex Reveal (1992)
@@ -756,9 +984,47 @@
 famille $Iteaceae J.Agardh (1858)
 [+ famille Pterostemonaceae Small (1905)]
 famille Paeoniaceae Raf. (1815)
-famille Saxifragaceae Juss. (1789)
-Rosidées (anglais "rosids")
-famille Aphloiaceae Takht. (1985)
+famille Saxifragaceae Juss. (1789)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification des plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dicotylédones vraies ou Eudicotylédones (anglais "eudicots")</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rosidées (anglais "rosids")</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>famille Aphloiaceae Takht. (1985)
 famille *Geissolomataceae Endl. (1841)
 famille Ixerbaceae Griseb. (1854)
 famille Picramniaceae Fernando &amp; Quinn (1995)
@@ -918,9 +1184,47 @@
 [+ famille Tetradiclidaceae (Engl.) Takht. (1986)]
 famille Rutaceae Juss. (1789)
 famille Sapindaceae Juss. (1789)
-famille Simaroubaceae DC. (1811)
-Astéridées (anglais "asterids")
-ordre Cornales Dumort. (1829)
+famille Simaroubaceae DC. (1811)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification des plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dicotylédones vraies ou Eudicotylédones (anglais "eudicots")</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Astéridées (anglais "asterids")</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ordre Cornales Dumort. (1829)
 famille Cornaceae Dumort. (1829)
 [+ famille Nyssaceae Juss. ex Dumort. (1829)]
 famille Curtisiaceae (Engl.) Takht. (1987)
@@ -1047,9 +1351,43 @@
 [+ famille Dipsacaceae Juss. (1789)]
 [+ famille Linnaeaceae (Raf.) Backlund (1998)]
 [+ famille Morinaceae Raf. (1820)]
-[+ famille Valerianaceae Batsch (1802)]
-Taxa de position incertaine (dicotylédones vraies pour la plupart)
-Quand un genre est le genre type d'un nom de famille, ce nom de famille est donné ici.
+[+ famille Valerianaceae Batsch (1802)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_II</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification des plantes à fleurs</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Taxa de position incertaine (dicotylédones vraies pour la plupart)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Quand un genre est le genre type d'un nom de famille, ce nom de famille est donné ici.
 Aneulophus Benth.
 famille Apodanthaceae van Tieghem ex Takhtajan in Takhtajan (1997) [trois genres]
 Bdallophyton Eichl.
